--- a/conf/excel/C_Railway.xlsx
+++ b/conf/excel/C_Railway.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA4407-A86B-4B6C-AB0C-28D4B830FAD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14895"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_Railway.conf" sheetId="1" r:id="rId1"/>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,11 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A11" sqref="A11:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,18 +577,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -667,13 +668,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/conf/excel/C_Railway.xlsx
+++ b/conf/excel/C_Railway.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA4407-A86B-4B6C-AB0C-28D4B830FAD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="C_Railway.conf" sheetId="1" r:id="rId1"/>
@@ -195,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD97"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,81 +600,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
